--- a/evolucao_ers.xlsx
+++ b/evolucao_ers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Corona virus/SARIMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4663" documentId="8_{AFFFEE53-A026-4EF9-AE88-DAE92E4B3B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{27980C7F-0E62-471A-B381-683BC2F59B7D}"/>
+  <xr:revisionPtr revIDLastSave="4972" documentId="8_{AFFFEE53-A026-4EF9-AE88-DAE92E4B3B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B414478A-3B08-433D-925E-BE66FF66CACD}"/>
   <bookViews>
     <workbookView xWindow="9435" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4771" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="103">
   <si>
     <t>Data</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Nova Maringa</t>
+  </si>
+  <si>
+    <t>Araputanga</t>
+  </si>
+  <si>
+    <t>Colniza</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2383"/>
+  <dimension ref="A1:G2477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2325" workbookViewId="0">
-      <selection activeCell="B2339" sqref="B2339"/>
+    <sheetView tabSelected="1" topLeftCell="A2391" workbookViewId="0">
+      <selection activeCell="B2405" sqref="B2405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55647,7 +55653,7 @@
         <v>71</v>
       </c>
       <c r="D2296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2296">
         <v>0</v>
@@ -55838,7 +55844,7 @@
         <v>20</v>
       </c>
       <c r="D2304">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2304">
         <v>14</v>
@@ -55848,7 +55854,7 @@
       </c>
       <c r="G2304">
         <f t="shared" si="38"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2305" spans="1:7">
@@ -56782,7 +56788,7 @@
         <v>0</v>
       </c>
       <c r="G2343">
-        <f t="shared" ref="G2343:G2383" si="45">SUM(D2343:F2343)</f>
+        <f t="shared" ref="G2343:G2387" si="45">SUM(D2343:F2343)</f>
         <v>17</v>
       </c>
     </row>
@@ -57743,6 +57749,2261 @@
       </c>
       <c r="G2383">
         <f t="shared" si="45"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:7">
+      <c r="A2384" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2384" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2384">
+        <v>9</v>
+      </c>
+      <c r="E2384">
+        <v>0</v>
+      </c>
+      <c r="F2384">
+        <v>0</v>
+      </c>
+      <c r="G2384">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:7">
+      <c r="A2385" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2385" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2385">
+        <v>3</v>
+      </c>
+      <c r="E2385">
+        <v>2</v>
+      </c>
+      <c r="F2385">
+        <v>0</v>
+      </c>
+      <c r="G2385">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:7">
+      <c r="A2386" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2386" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2386">
+        <v>21</v>
+      </c>
+      <c r="E2386">
+        <v>13</v>
+      </c>
+      <c r="F2386">
+        <v>3</v>
+      </c>
+      <c r="G2386">
+        <f t="shared" si="45"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:7">
+      <c r="A2387" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2387" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2387">
+        <v>7</v>
+      </c>
+      <c r="E2387">
+        <v>2</v>
+      </c>
+      <c r="F2387">
+        <v>1</v>
+      </c>
+      <c r="G2387">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:7">
+      <c r="A2388" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2388" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2388">
+        <v>2</v>
+      </c>
+      <c r="E2388">
+        <v>0</v>
+      </c>
+      <c r="F2388">
+        <v>1</v>
+      </c>
+      <c r="G2388">
+        <f t="shared" ref="G2388" si="46">SUM(D2388:F2388)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:7">
+      <c r="A2389" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2389" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2389">
+        <v>1</v>
+      </c>
+      <c r="E2389">
+        <v>0</v>
+      </c>
+      <c r="F2389">
+        <v>0</v>
+      </c>
+      <c r="G2389">
+        <f t="shared" ref="G2389:G2455" si="47">SUM(D2389:F2389)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:7">
+      <c r="A2390" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2390" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2390">
+        <v>1</v>
+      </c>
+      <c r="E2390">
+        <v>0</v>
+      </c>
+      <c r="F2390">
+        <v>0</v>
+      </c>
+      <c r="G2390">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:7">
+      <c r="A2391" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2391" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2391">
+        <v>2</v>
+      </c>
+      <c r="E2391">
+        <v>0</v>
+      </c>
+      <c r="F2391">
+        <v>0</v>
+      </c>
+      <c r="G2391">
+        <f t="shared" ref="G2391" si="48">SUM(D2391:F2391)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:7">
+      <c r="A2392" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2392" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2392">
+        <v>1</v>
+      </c>
+      <c r="E2392">
+        <v>0</v>
+      </c>
+      <c r="F2392">
+        <v>0</v>
+      </c>
+      <c r="G2392">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:7">
+      <c r="A2393" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2393" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2393">
+        <v>20</v>
+      </c>
+      <c r="E2393">
+        <v>4</v>
+      </c>
+      <c r="F2393">
+        <v>1</v>
+      </c>
+      <c r="G2393">
+        <f t="shared" si="47"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:7">
+      <c r="A2394" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2394" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2394">
+        <v>1</v>
+      </c>
+      <c r="E2394">
+        <v>0</v>
+      </c>
+      <c r="F2394">
+        <v>0</v>
+      </c>
+      <c r="G2394">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:7">
+      <c r="A2395" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2395" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2395">
+        <v>44</v>
+      </c>
+      <c r="E2395">
+        <v>24</v>
+      </c>
+      <c r="F2395">
+        <v>4</v>
+      </c>
+      <c r="G2395">
+        <f t="shared" si="47"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:7">
+      <c r="A2396" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2396" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2396">
+        <v>2</v>
+      </c>
+      <c r="E2396">
+        <v>2</v>
+      </c>
+      <c r="F2396">
+        <v>0</v>
+      </c>
+      <c r="G2396">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:7">
+      <c r="A2397" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2397" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2397">
+        <v>12</v>
+      </c>
+      <c r="E2397">
+        <v>16</v>
+      </c>
+      <c r="F2397">
+        <v>3</v>
+      </c>
+      <c r="G2397">
+        <f t="shared" si="47"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:7">
+      <c r="A2398" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2398" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2398">
+        <v>15</v>
+      </c>
+      <c r="E2398">
+        <v>2</v>
+      </c>
+      <c r="F2398">
+        <v>0</v>
+      </c>
+      <c r="G2398">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:7">
+      <c r="A2399" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2399" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2399">
+        <v>42</v>
+      </c>
+      <c r="E2399">
+        <v>1</v>
+      </c>
+      <c r="F2399">
+        <v>0</v>
+      </c>
+      <c r="G2399">
+        <f t="shared" si="47"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:7">
+      <c r="A2400" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2400" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2400">
+        <v>0</v>
+      </c>
+      <c r="E2400">
+        <v>1</v>
+      </c>
+      <c r="F2400">
+        <v>0</v>
+      </c>
+      <c r="G2400">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:7">
+      <c r="A2401" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2401" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2401">
+        <v>9</v>
+      </c>
+      <c r="E2401">
+        <v>2</v>
+      </c>
+      <c r="F2401">
+        <v>0</v>
+      </c>
+      <c r="G2401">
+        <f t="shared" si="47"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:7">
+      <c r="A2402" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2402" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2402">
+        <v>6</v>
+      </c>
+      <c r="E2402">
+        <v>4</v>
+      </c>
+      <c r="F2402">
+        <v>2</v>
+      </c>
+      <c r="G2402">
+        <f t="shared" si="47"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:7">
+      <c r="A2403" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2403" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2403" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2403">
+        <v>7</v>
+      </c>
+      <c r="E2403">
+        <v>0</v>
+      </c>
+      <c r="F2403">
+        <v>0</v>
+      </c>
+      <c r="G2403">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:7">
+      <c r="A2404" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2404" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2404" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2404">
+        <v>1</v>
+      </c>
+      <c r="E2404">
+        <v>0</v>
+      </c>
+      <c r="F2404">
+        <v>0</v>
+      </c>
+      <c r="G2404">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:7">
+      <c r="A2405" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2405" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2405">
+        <v>2</v>
+      </c>
+      <c r="E2405">
+        <v>0</v>
+      </c>
+      <c r="F2405">
+        <v>0</v>
+      </c>
+      <c r="G2405">
+        <f>SUM(D2405:F2405)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:7">
+      <c r="A2406" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2406" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2406">
+        <v>62</v>
+      </c>
+      <c r="E2406">
+        <v>17</v>
+      </c>
+      <c r="F2406">
+        <v>0</v>
+      </c>
+      <c r="G2406">
+        <f t="shared" ref="G2406:G2470" si="49">SUM(D2406:F2406)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:7">
+      <c r="A2407" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2407" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2407">
+        <v>3</v>
+      </c>
+      <c r="E2407">
+        <v>1</v>
+      </c>
+      <c r="F2407">
+        <v>0</v>
+      </c>
+      <c r="G2407">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:7">
+      <c r="A2408" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2408" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2408">
+        <v>2</v>
+      </c>
+      <c r="E2408">
+        <v>1</v>
+      </c>
+      <c r="F2408">
+        <v>1</v>
+      </c>
+      <c r="G2408">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:7">
+      <c r="A2409" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2409" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2409">
+        <v>525</v>
+      </c>
+      <c r="E2409">
+        <v>212</v>
+      </c>
+      <c r="F2409">
+        <v>10</v>
+      </c>
+      <c r="G2409">
+        <f t="shared" si="49"/>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:7">
+      <c r="A2410" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2410" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2410">
+        <v>0</v>
+      </c>
+      <c r="E2410">
+        <v>3</v>
+      </c>
+      <c r="F2410">
+        <v>1</v>
+      </c>
+      <c r="G2410">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:7">
+      <c r="A2411" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2411" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2411">
+        <v>4</v>
+      </c>
+      <c r="E2411">
+        <v>0</v>
+      </c>
+      <c r="F2411">
+        <v>0</v>
+      </c>
+      <c r="G2411">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:7">
+      <c r="A2412" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2412" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2412">
+        <v>4</v>
+      </c>
+      <c r="E2412">
+        <v>0</v>
+      </c>
+      <c r="F2412">
+        <v>0</v>
+      </c>
+      <c r="G2412">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:7">
+      <c r="A2413" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2413" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2413">
+        <v>10</v>
+      </c>
+      <c r="E2413">
+        <v>2</v>
+      </c>
+      <c r="F2413">
+        <v>0</v>
+      </c>
+      <c r="G2413">
+        <f t="shared" si="49"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:7">
+      <c r="A2414" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2414" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2414">
+        <v>1</v>
+      </c>
+      <c r="E2414">
+        <v>0</v>
+      </c>
+      <c r="F2414">
+        <v>0</v>
+      </c>
+      <c r="G2414">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:7">
+      <c r="A2415" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2415" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2415">
+        <v>2</v>
+      </c>
+      <c r="E2415">
+        <v>3</v>
+      </c>
+      <c r="F2415">
+        <v>0</v>
+      </c>
+      <c r="G2415">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:7">
+      <c r="A2416" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2416" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2416">
+        <v>1</v>
+      </c>
+      <c r="E2416">
+        <v>0</v>
+      </c>
+      <c r="F2416">
+        <v>0</v>
+      </c>
+      <c r="G2416">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:7">
+      <c r="A2417" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2417" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2417">
+        <v>13</v>
+      </c>
+      <c r="E2417">
+        <v>25</v>
+      </c>
+      <c r="F2417">
+        <v>0</v>
+      </c>
+      <c r="G2417">
+        <f t="shared" si="49"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:7">
+      <c r="A2418" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2418" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2418">
+        <v>2</v>
+      </c>
+      <c r="E2418">
+        <v>6</v>
+      </c>
+      <c r="F2418">
+        <v>1</v>
+      </c>
+      <c r="G2418">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:7">
+      <c r="A2419" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2419" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2419">
+        <v>1</v>
+      </c>
+      <c r="E2419">
+        <v>0</v>
+      </c>
+      <c r="F2419">
+        <v>1</v>
+      </c>
+      <c r="G2419">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:7">
+      <c r="A2420" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2420" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2420">
+        <v>4</v>
+      </c>
+      <c r="E2420">
+        <v>0</v>
+      </c>
+      <c r="F2420">
+        <v>1</v>
+      </c>
+      <c r="G2420">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:7">
+      <c r="A2421" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2421" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2421">
+        <v>3</v>
+      </c>
+      <c r="E2421">
+        <v>3</v>
+      </c>
+      <c r="F2421">
+        <v>1</v>
+      </c>
+      <c r="G2421">
+        <f t="shared" si="49"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:7">
+      <c r="A2422" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2422">
+        <v>5</v>
+      </c>
+      <c r="E2422">
+        <v>2</v>
+      </c>
+      <c r="F2422">
+        <v>0</v>
+      </c>
+      <c r="G2422">
+        <f t="shared" si="49"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:7">
+      <c r="A2423" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2423" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2423">
+        <v>1</v>
+      </c>
+      <c r="E2423">
+        <v>1</v>
+      </c>
+      <c r="F2423">
+        <v>0</v>
+      </c>
+      <c r="G2423">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:7">
+      <c r="A2424" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2424" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2424">
+        <v>43</v>
+      </c>
+      <c r="E2424">
+        <v>29</v>
+      </c>
+      <c r="F2424">
+        <v>2</v>
+      </c>
+      <c r="G2424">
+        <f t="shared" si="49"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:7">
+      <c r="A2425" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2425" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2425">
+        <v>1</v>
+      </c>
+      <c r="E2425">
+        <v>0</v>
+      </c>
+      <c r="F2425">
+        <v>0</v>
+      </c>
+      <c r="G2425">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:7">
+      <c r="A2426" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2426" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2426">
+        <v>7</v>
+      </c>
+      <c r="E2426">
+        <v>0</v>
+      </c>
+      <c r="F2426">
+        <v>0</v>
+      </c>
+      <c r="G2426">
+        <f t="shared" si="49"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:7">
+      <c r="A2427" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2427" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2427">
+        <v>6</v>
+      </c>
+      <c r="E2427">
+        <v>7</v>
+      </c>
+      <c r="F2427">
+        <v>1</v>
+      </c>
+      <c r="G2427">
+        <f t="shared" si="49"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:7">
+      <c r="A2428" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2428" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2428">
+        <v>2</v>
+      </c>
+      <c r="E2428">
+        <v>1</v>
+      </c>
+      <c r="F2428">
+        <v>0</v>
+      </c>
+      <c r="G2428">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:7">
+      <c r="A2429" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2429" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2429">
+        <v>6</v>
+      </c>
+      <c r="E2429">
+        <v>1</v>
+      </c>
+      <c r="F2429">
+        <v>0</v>
+      </c>
+      <c r="G2429">
+        <f t="shared" si="49"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:7">
+      <c r="A2430" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2430" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2430">
+        <v>3</v>
+      </c>
+      <c r="E2430">
+        <v>0</v>
+      </c>
+      <c r="F2430">
+        <v>0</v>
+      </c>
+      <c r="G2430">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:7">
+      <c r="A2431" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2431" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2431">
+        <v>3</v>
+      </c>
+      <c r="E2431">
+        <v>1</v>
+      </c>
+      <c r="F2431">
+        <v>0</v>
+      </c>
+      <c r="G2431">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:7">
+      <c r="A2432" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2432" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2432">
+        <v>1</v>
+      </c>
+      <c r="E2432">
+        <v>0</v>
+      </c>
+      <c r="F2432">
+        <v>0</v>
+      </c>
+      <c r="G2432">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:7">
+      <c r="A2433" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2433" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2433">
+        <v>0</v>
+      </c>
+      <c r="E2433">
+        <v>1</v>
+      </c>
+      <c r="F2433">
+        <v>0</v>
+      </c>
+      <c r="G2433">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:7">
+      <c r="A2434" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2434" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2434">
+        <v>17</v>
+      </c>
+      <c r="E2434">
+        <v>14</v>
+      </c>
+      <c r="F2434">
+        <v>1</v>
+      </c>
+      <c r="G2434">
+        <f t="shared" si="49"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:7">
+      <c r="A2435" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2435" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2435">
+        <v>3</v>
+      </c>
+      <c r="E2435">
+        <v>1</v>
+      </c>
+      <c r="F2435">
+        <v>0</v>
+      </c>
+      <c r="G2435">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:7">
+      <c r="A2436" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2436" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2436">
+        <v>4</v>
+      </c>
+      <c r="E2436">
+        <v>0</v>
+      </c>
+      <c r="F2436">
+        <v>0</v>
+      </c>
+      <c r="G2436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:7">
+      <c r="A2437" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2437" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2437">
+        <v>17</v>
+      </c>
+      <c r="E2437">
+        <v>0</v>
+      </c>
+      <c r="F2437">
+        <v>0</v>
+      </c>
+      <c r="G2437">
+        <f t="shared" ref="G2437:G2477" si="50">SUM(D2437:F2437)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:7">
+      <c r="A2438" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2438" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2438">
+        <v>1</v>
+      </c>
+      <c r="E2438">
+        <v>0</v>
+      </c>
+      <c r="F2438">
+        <v>0</v>
+      </c>
+      <c r="G2438">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:7">
+      <c r="A2439" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2439" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2439">
+        <v>12</v>
+      </c>
+      <c r="E2439">
+        <v>0</v>
+      </c>
+      <c r="F2439">
+        <v>0</v>
+      </c>
+      <c r="G2439">
+        <f t="shared" si="50"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:7">
+      <c r="A2440" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2440" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2440">
+        <v>3</v>
+      </c>
+      <c r="E2440">
+        <v>0</v>
+      </c>
+      <c r="F2440">
+        <v>0</v>
+      </c>
+      <c r="G2440">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:7">
+      <c r="A2441" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2441" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2441">
+        <v>1</v>
+      </c>
+      <c r="E2441">
+        <v>0</v>
+      </c>
+      <c r="F2441">
+        <v>0</v>
+      </c>
+      <c r="G2441">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:7">
+      <c r="A2442" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2442" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2442">
+        <v>4</v>
+      </c>
+      <c r="E2442">
+        <v>0</v>
+      </c>
+      <c r="F2442">
+        <v>0</v>
+      </c>
+      <c r="G2442">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:7">
+      <c r="A2443" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2443" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2443">
+        <v>10</v>
+      </c>
+      <c r="E2443">
+        <v>15</v>
+      </c>
+      <c r="F2443">
+        <v>0</v>
+      </c>
+      <c r="G2443">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:7">
+      <c r="A2444" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2444" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2444">
+        <v>0</v>
+      </c>
+      <c r="E2444">
+        <v>3</v>
+      </c>
+      <c r="F2444">
+        <v>0</v>
+      </c>
+      <c r="G2444">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:7">
+      <c r="A2445" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2445" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2445">
+        <v>5</v>
+      </c>
+      <c r="E2445">
+        <v>2</v>
+      </c>
+      <c r="F2445">
+        <v>0</v>
+      </c>
+      <c r="G2445">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:7">
+      <c r="A2446" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2446" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2446">
+        <v>0</v>
+      </c>
+      <c r="E2446">
+        <v>0</v>
+      </c>
+      <c r="F2446">
+        <v>1</v>
+      </c>
+      <c r="G2446">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:7">
+      <c r="A2447" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2447" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2447">
+        <v>22</v>
+      </c>
+      <c r="E2447">
+        <v>7</v>
+      </c>
+      <c r="F2447">
+        <v>1</v>
+      </c>
+      <c r="G2447">
+        <f t="shared" si="50"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:7">
+      <c r="A2448" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2448">
+        <v>1</v>
+      </c>
+      <c r="E2448">
+        <v>1</v>
+      </c>
+      <c r="F2448">
+        <v>0</v>
+      </c>
+      <c r="G2448">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:7">
+      <c r="A2449" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2449">
+        <v>4</v>
+      </c>
+      <c r="E2449">
+        <v>0</v>
+      </c>
+      <c r="F2449">
+        <v>0</v>
+      </c>
+      <c r="G2449">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:7">
+      <c r="A2450" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2450" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2450">
+        <v>0</v>
+      </c>
+      <c r="E2450">
+        <v>2</v>
+      </c>
+      <c r="F2450">
+        <v>0</v>
+      </c>
+      <c r="G2450">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:7">
+      <c r="A2451" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2451" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2451">
+        <v>90</v>
+      </c>
+      <c r="E2451">
+        <v>18</v>
+      </c>
+      <c r="F2451">
+        <v>0</v>
+      </c>
+      <c r="G2451">
+        <f t="shared" si="50"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:7">
+      <c r="A2452" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2452" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2452">
+        <v>8</v>
+      </c>
+      <c r="E2452">
+        <v>8</v>
+      </c>
+      <c r="F2452">
+        <v>1</v>
+      </c>
+      <c r="G2452">
+        <f t="shared" si="50"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:7">
+      <c r="A2453" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2453" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2453">
+        <v>5</v>
+      </c>
+      <c r="E2453">
+        <v>0</v>
+      </c>
+      <c r="F2453">
+        <v>0</v>
+      </c>
+      <c r="G2453">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:7">
+      <c r="A2454" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2454" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2454">
+        <v>1</v>
+      </c>
+      <c r="E2454">
+        <v>2</v>
+      </c>
+      <c r="F2454">
+        <v>0</v>
+      </c>
+      <c r="G2454">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:7">
+      <c r="A2455" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2455" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2455">
+        <v>0</v>
+      </c>
+      <c r="E2455">
+        <v>2</v>
+      </c>
+      <c r="F2455">
+        <v>0</v>
+      </c>
+      <c r="G2455">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:7">
+      <c r="A2456" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2456" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2456">
+        <v>145</v>
+      </c>
+      <c r="E2456">
+        <v>53</v>
+      </c>
+      <c r="F2456">
+        <v>6</v>
+      </c>
+      <c r="G2456">
+        <f t="shared" si="50"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:7">
+      <c r="A2457" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2457" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2457">
+        <v>19</v>
+      </c>
+      <c r="E2457">
+        <v>23</v>
+      </c>
+      <c r="F2457">
+        <v>0</v>
+      </c>
+      <c r="G2457">
+        <f t="shared" si="50"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:7">
+      <c r="A2458" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2458" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2458">
+        <v>1</v>
+      </c>
+      <c r="E2458">
+        <v>0</v>
+      </c>
+      <c r="F2458">
+        <v>0</v>
+      </c>
+      <c r="G2458">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:7">
+      <c r="A2459" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2459" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2459">
+        <v>1</v>
+      </c>
+      <c r="E2459">
+        <v>0</v>
+      </c>
+      <c r="F2459">
+        <v>0</v>
+      </c>
+      <c r="G2459">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:7">
+      <c r="A2460" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2460" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2460">
+        <v>4</v>
+      </c>
+      <c r="E2460">
+        <v>1</v>
+      </c>
+      <c r="F2460">
+        <v>0</v>
+      </c>
+      <c r="G2460">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:7">
+      <c r="A2461" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2461" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2461">
+        <v>0</v>
+      </c>
+      <c r="E2461">
+        <v>1</v>
+      </c>
+      <c r="F2461">
+        <v>0</v>
+      </c>
+      <c r="G2461">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:7">
+      <c r="A2462" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2462" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2462">
+        <v>1</v>
+      </c>
+      <c r="E2462">
+        <v>0</v>
+      </c>
+      <c r="F2462">
+        <v>0</v>
+      </c>
+      <c r="G2462">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:7">
+      <c r="A2463" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2463" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2463">
+        <v>1</v>
+      </c>
+      <c r="E2463">
+        <v>0</v>
+      </c>
+      <c r="F2463">
+        <v>0</v>
+      </c>
+      <c r="G2463">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:7">
+      <c r="A2464" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2464" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2464">
+        <v>2</v>
+      </c>
+      <c r="E2464">
+        <v>5</v>
+      </c>
+      <c r="F2464">
+        <v>0</v>
+      </c>
+      <c r="G2464">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:7">
+      <c r="A2465" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2465" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2465">
+        <v>2</v>
+      </c>
+      <c r="E2465">
+        <v>4</v>
+      </c>
+      <c r="F2465">
+        <v>1</v>
+      </c>
+      <c r="G2465">
+        <f t="shared" si="50"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:7">
+      <c r="A2466" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2466" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2466">
+        <v>22</v>
+      </c>
+      <c r="E2466">
+        <v>1</v>
+      </c>
+      <c r="F2466">
+        <v>0</v>
+      </c>
+      <c r="G2466">
+        <f t="shared" si="50"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:7">
+      <c r="A2467" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2467">
+        <v>31</v>
+      </c>
+      <c r="E2467">
+        <v>20</v>
+      </c>
+      <c r="F2467">
+        <v>3</v>
+      </c>
+      <c r="G2467">
+        <f t="shared" si="50"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:7">
+      <c r="A2468" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2468" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2468">
+        <v>61</v>
+      </c>
+      <c r="E2468">
+        <v>25</v>
+      </c>
+      <c r="F2468">
+        <v>0</v>
+      </c>
+      <c r="G2468">
+        <f t="shared" si="50"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:7">
+      <c r="A2469" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2469" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2469">
+        <v>73</v>
+      </c>
+      <c r="E2469">
+        <v>39</v>
+      </c>
+      <c r="F2469">
+        <v>0</v>
+      </c>
+      <c r="G2469">
+        <f t="shared" si="50"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:7">
+      <c r="A2470" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2470" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2470">
+        <v>9</v>
+      </c>
+      <c r="E2470">
+        <v>3</v>
+      </c>
+      <c r="F2470">
+        <v>0</v>
+      </c>
+      <c r="G2470">
+        <f t="shared" si="50"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:7">
+      <c r="A2471" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2471" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2471">
+        <v>1</v>
+      </c>
+      <c r="E2471">
+        <v>0</v>
+      </c>
+      <c r="F2471">
+        <v>0</v>
+      </c>
+      <c r="G2471">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:7">
+      <c r="A2472" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2472" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2472">
+        <v>0</v>
+      </c>
+      <c r="E2472">
+        <v>1</v>
+      </c>
+      <c r="F2472">
+        <v>0</v>
+      </c>
+      <c r="G2472">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:7">
+      <c r="A2473" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2473" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2473">
+        <v>0</v>
+      </c>
+      <c r="E2473">
+        <v>1</v>
+      </c>
+      <c r="F2473">
+        <v>1</v>
+      </c>
+      <c r="G2473">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:7">
+      <c r="A2474" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2474" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2474">
+        <v>174</v>
+      </c>
+      <c r="E2474">
+        <v>45</v>
+      </c>
+      <c r="F2474">
+        <v>12</v>
+      </c>
+      <c r="G2474">
+        <f t="shared" si="50"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:7">
+      <c r="A2475" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2475" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2475">
+        <v>3</v>
+      </c>
+      <c r="E2475">
+        <v>0</v>
+      </c>
+      <c r="F2475">
+        <v>0</v>
+      </c>
+      <c r="G2475">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:7">
+      <c r="A2476" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2476" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2476">
+        <v>2</v>
+      </c>
+      <c r="E2476">
+        <v>2</v>
+      </c>
+      <c r="F2476">
+        <v>0</v>
+      </c>
+      <c r="G2476">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:7">
+      <c r="A2477" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2477" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2477">
+        <v>12</v>
+      </c>
+      <c r="E2477">
+        <v>0</v>
+      </c>
+      <c r="F2477">
+        <v>0</v>
+      </c>
+      <c r="G2477">
+        <f t="shared" si="50"/>
         <v>12</v>
       </c>
     </row>
